--- a/Document/CD2 - Group6/3. Sprint-backlog-Group6.xlsx
+++ b/Document/CD2 - Group6/3. Sprint-backlog-Group6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2 - Group6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,19 +386,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -841,7 +841,7 @@
   <dimension ref="A1:AA141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>35</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="8">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>36</v>
@@ -1222,16 +1222,16 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1267,7 +1267,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1312,7 +1312,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1357,7 +1357,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="8">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>37</v>
@@ -1437,16 +1437,16 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -1482,7 +1482,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1527,7 +1527,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1572,7 +1572,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="8">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>38</v>
@@ -1652,16 +1652,16 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1697,7 +1697,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1742,7 +1742,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1787,7 +1787,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="8">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>39</v>
@@ -1867,19 +1867,19 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1957,7 +1957,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -2002,7 +2002,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2047,7 +2047,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="8">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>40</v>
@@ -2127,19 +2127,19 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
         <v>4</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
@@ -2172,7 +2172,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -2217,7 +2217,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2262,7 +2262,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2307,7 +2307,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2353,7 +2353,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11">
         <f>SUM(E7:E36)</f>
-        <v>120</v>
+        <v>415</v>
       </c>
       <c r="F37" s="11">
         <f>SUM(F8:F36)</f>
@@ -2361,15 +2361,15 @@
       </c>
       <c r="G37" s="11">
         <f>SUM(G7:G36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(H7:H36)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I37" s="11">
         <f>SUM(I7:I36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J37" s="11">
         <f>SUM(J7:J36)</f>
